--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_6DFBBE858289C8C7F32634D05F6B97BC65B49737" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E17E7B-3B1D-4111-B846-2C9A6E3C3F6C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_6DFBBE858289C8C7F32634D05F6B97BC65B49737" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376DBDC3-CE16-46A5-9DA8-865776051AF0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>&lt;Req02 CFG &gt;</t>
-  </si>
-  <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
@@ -202,27 +196,6 @@
         <family val="2"/>
       </rPr>
       <t>failed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cautarea filmelor care au un anumit regizor (sau parti din numele regizorului);</t>
     </r>
   </si>
   <si>
@@ -548,6 +521,45 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1-2F-4F-6F-9-10 =&gt; IMPOSIBIL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F02.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Testam obtinerea sumei totale pentru un anumit tip de pizza</t>
+    </r>
+  </si>
+  <si>
+    <t>Nedelcu Gabriel Alexandru</t>
+  </si>
+  <si>
+    <t>Dumitru Vlad Stefan</t>
+  </si>
+  <si>
+    <t>Murariu Tudor</t>
   </si>
 </sst>
 </file>
@@ -1352,6 +1364,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1362,14 +1380,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,18 +1433,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1436,81 +1457,114 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1537,48 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,8 +1631,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>588992</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>926</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
@@ -1712,6 +1724,14 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2007,7 +2027,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,34 +2037,34 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
@@ -2055,10 +2075,10 @@
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -2067,10 +2087,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="N7" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="24">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -2078,35 +2102,37 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="24">
+        <v>233</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="N9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="24">
+        <v>235</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2139,8 +2165,8 @@
   </sheetPr>
   <dimension ref="B1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,73 +2177,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="D1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="Q6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="I6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
       <c r="T8" s="31">
         <v>5</v>
       </c>
@@ -2226,19 +2252,19 @@
       <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" s="35"/>
-      <c r="Q9" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
+      <c r="Q9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
       <c r="T9" s="31">
         <v>5</v>
       </c>
@@ -2247,29 +2273,29 @@
       <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="42" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="42"/>
+      <c r="S10" s="43"/>
       <c r="T10" s="31">
         <v>5</v>
       </c>
@@ -2278,208 +2304,212 @@
       <c r="B11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="Q13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="Q13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
       <c r="Q15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
       <c r="Q16" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="Q17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="Q18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="Q19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="Q17" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="40" t="s">
+      <c r="R19" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="Q18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="Q19" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="Q20" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2518,10 +2548,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Z16"/>
+  <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,178 +2570,172 @@
     <col min="15" max="16" width="8.85546875" customWidth="1"/>
     <col min="19" max="20" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.140625" customWidth="1"/>
-    <col min="22" max="22" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="E1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-    </row>
-    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-    </row>
-    <row r="8" spans="2:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="58" t="s">
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+    </row>
+    <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="65"/>
+      <c r="C8" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="61">
+      <c r="N8" s="61"/>
+      <c r="O8" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="63">
         <v>0</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="63">
         <v>1</v>
       </c>
-      <c r="U8" s="111">
+      <c r="U8" s="72">
         <v>2</v>
       </c>
-      <c r="V8" s="61">
-        <v>3</v>
-      </c>
-      <c r="W8" s="61" t="s">
+      <c r="V8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="61" t="s">
+      <c r="W8" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="61" t="s">
+      <c r="X8" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="61" t="s">
+      <c r="Y8" s="63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="59"/>
+    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="65"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2736,92 +2760,92 @@
       <c r="N9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-    </row>
-    <row r="10" spans="2:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+    </row>
+    <row r="10" spans="2:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="13">
         <v>13</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="W10" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-    </row>
-    <row r="11" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -2830,173 +2854,167 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-    </row>
-    <row r="12" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="110">
+        <v>86</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="38">
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-    </row>
-    <row r="13" spans="2:26" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:25" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" s="13">
         <v>13</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="W13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-    </row>
-    <row r="14" spans="2:26" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="W14" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
@@ -3023,31 +3041,33 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-    </row>
-    <row r="16" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F6:Z6"/>
+    <mergeCell ref="F6:Y6"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
@@ -3056,10 +3076,6 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="O7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3094,65 +3110,65 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="84" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="98"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="86" t="s">
-        <v>109</v>
+      <c r="B5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="99" t="s">
+        <v>106</v>
       </c>
       <c r="F5" s="113"/>
       <c r="G5" s="113"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="87"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="100"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3164,22 +3180,22 @@
       <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="93" t="s">
-        <v>47</v>
+      <c r="C6" s="107" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="114" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
       <c r="H6" s="116"/>
-      <c r="I6" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="83"/>
+      <c r="I6" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="96"/>
       <c r="K6" s="13">
         <v>13</v>
       </c>
@@ -3191,20 +3207,20 @@
       <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="85"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="98"/>
       <c r="K7" s="13">
         <v>0</v>
       </c>
@@ -3216,20 +3232,20 @@
       <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="85"/>
+        <v>91</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="98"/>
       <c r="K8" s="13">
         <v>0</v>
       </c>
@@ -3241,20 +3257,20 @@
       <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="85"/>
+        <v>92</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="98"/>
       <c r="K9" s="13">
         <v>13</v>
       </c>
@@ -3266,20 +3282,20 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="87"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="100"/>
       <c r="K10" s="13">
         <v>0</v>
       </c>
@@ -3307,83 +3323,83 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101" t="s">
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="99" t="s">
+      <c r="F14" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="69" t="s">
+      <c r="G14" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="70"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="72" t="s">
+      <c r="H14" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="76" t="s">
+      <c r="L14" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="M14" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="N14" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="79" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="83"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
@@ -3402,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" s="24">
         <f>SUM(J16:K16)</f>
@@ -3421,7 +3437,7 @@
         <v>100</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N16" s="27">
         <f>C16</f>
@@ -3474,21 +3490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3632,24 +3633,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3665,4 +3664,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>